--- a/results/JayaFeaturesTrainPrepared/Sheet1/model_evaluation_results.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/model_evaluation_results.xlsx
@@ -517,22 +517,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.60 (0.52, 0.68)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.46 (0.37, 0.54)</t>
+          <t>0.49 (0.41, 0.57)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.96)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.52 (0.43, 0.60)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -549,27 +549,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.54 (0.45, 0.62)</t>
+          <t>0.34 (0.26, 0.42)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.21 (0.15, 0.28)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49 (0.40, 0.57)</t>
+          <t>0.88 (0.82, 0.93)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.51 (0.43, 0.60)</t>
+          <t>0.39 (0.31, 0.48)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
     </row>
@@ -613,27 +613,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.63 (0.56, 0.71)</t>
+          <t>0.65 (0.57, 0.72)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.67 (0.59, 0.75)</t>
+          <t>0.69 (0.61, 0.77)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.67 (0.59, 0.75)</t>
+          <t>0.66 (0.58, 0.74)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.56 (0.48, 0.64)</t>
+          <t>0.56 (0.47, 0.64)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.79 (0.72, 0.85)</t>
         </is>
       </c>
     </row>
@@ -696,27 +696,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.83 (0.77, 0.89)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.85 (0.79, 0.91)</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.76 (0.69, 0.83)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.72 (0.64, 0.79)</t>
+          <t>0.72 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.90 (0.86, 0.95)</t>
+          <t>0.91 (0.86, 0.96)</t>
         </is>
       </c>
     </row>
@@ -728,27 +728,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.59 (0.51, 0.68)</t>
+          <t>0.19 (0.12, 0.25)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.57 (0.49, 0.65)</t>
+          <t>0.24 (0.17, 0.31)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.79 (0.72, 0.86)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.65 (0.57, 0.73)</t>
+          <t>0.17 (0.11, 0.24)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.70 (0.63, 0.78)</t>
         </is>
       </c>
     </row>
@@ -760,17 +760,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.93)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.72 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.93 (0.89, 0.97)</t>
+          <t>0.92 (0.88, 0.97)</t>
         </is>
       </c>
     </row>
@@ -792,27 +792,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.82 (0.76, 0.88)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.75 (0.68, 0.83)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.94)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.81 (0.75, 0.88)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.85 (0.80, 0.91)</t>
+          <t>0.86 (0.81, 0.92)</t>
         </is>
       </c>
     </row>
@@ -875,27 +875,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.80 (0.73, 0.86)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.84)</t>
+          <t>0.68 (0.60, 0.76)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.79)</t>
+          <t>0.64 (0.56, 0.72)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.91 (0.87, 0.96)</t>
+          <t>0.92 (0.87, 0.96)</t>
         </is>
       </c>
     </row>
@@ -907,27 +907,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.76 (0.68, 0.83)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.91)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
     </row>
@@ -939,17 +939,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.82 (0.76, 0.88)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72 (0.65, 0.80)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.91 (0.86, 0.95)</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.84 (0.77, 0.90)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1054,27 +1054,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.83 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.85)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.76 (0.68, 0.83)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.92 (0.87, 0.96)</t>
+          <t>0.91 (0.86, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1086,27 +1086,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.76 (0.68, 0.83)</t>
+          <t>0.83 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.86 (0.81, 0.92)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.73 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.91)</t>
+          <t>0.91 (0.86, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.83 (0.77, 0.90)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72 (0.64, 0.79)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.93 (0.88, 0.97)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.73 (0.65, 0.80)</t>
+          <t>0.78 (0.71, 0.84)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.89 (0.84, 0.94)</t>
+          <t>0.86 (0.80, 0.91)</t>
         </is>
       </c>
     </row>
@@ -1233,27 +1233,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.75 (0.67, 0.82)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.73 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1265,27 +1265,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.82 (0.75, 0.88)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.82 (0.76, 0.89)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.83 (0.77, 0.89)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.70 (0.63, 0.78)</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.62 (0.54, 0.70)</t>
+          <t>0.73 (0.66, 0.80)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.88 (0.82, 0.93)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.83 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.92 (0.88, 0.97)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.92 (0.87, 0.96)</t>
+          <t>0.95 (0.92, 0.99)</t>
         </is>
       </c>
     </row>
@@ -1329,27 +1329,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.85 (0.80, 0.91)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.96)</t>
+          <t>0.89 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74 (0.66, 0.81)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.94 (0.90, 0.98)</t>
+          <t>0.92 (0.87, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.85 (0.80, 0.91)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.70 (0.62, 0.77)</t>
+          <t>0.69 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1444,27 +1444,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.16 (0.10, 0.22)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.00 (0.00, 0.00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.00 (1.00, 1.00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00 (0.00, 0.00)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.63 (0.55, 0.71)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.61 (0.53, 0.69)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1486,17 +1486,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.68 (0.60, 0.76)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.93 (0.88, 0.97)</t>
+          <t>0.92 (0.88, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1508,27 +1508,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.89 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.72 (0.64, 0.79)</t>
+          <t>0.68 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.95 (0.91, 0.99)</t>
+          <t>0.92 (0.87, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1591,27 +1591,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.82 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.98 (0.96, 1.00)</t>
+          <t>0.93 (0.88, 0.97)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.70 (0.63, 0.78)</t>
+          <t>0.63 (0.55, 0.71)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.99 (0.97, 1.01)</t>
+          <t>0.94 (0.90, 0.98)</t>
         </is>
       </c>
     </row>
@@ -1623,27 +1623,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.16 (0.10, 0.22)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.00 (0.00, 0.00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.00 (1.00, 1.00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00 (0.00, 0.00)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.63 (0.55, 0.71)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.61 (0.53, 0.69)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1655,27 +1655,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.87 (0.82, 0.93)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.85)</t>
+          <t>0.76 (0.69, 0.83)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.72 (0.65, 0.80)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.94 (0.90, 0.98)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1687,27 +1687,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.88 (0.82, 0.93)</t>
+          <t>0.86 (0.81, 0.92)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.96 (0.93, 0.99)</t>
+          <t>0.89 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.74 (0.66, 0.81)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.70 (0.62, 0.77)</t>
+          <t>0.68 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.97 (0.95, 1.00)</t>
+          <t>0.93 (0.88, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1770,27 +1770,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73 (0.65, 0.80)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.66 (0.59, 0.74)</t>
+          <t>0.72 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.94 (0.90, 0.98)</t>
+          <t>0.91 (0.87, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1802,27 +1802,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.16 (0.10, 0.22)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.00 (0.00, 0.00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.00 (1.00, 1.00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00 (0.00, 0.00)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.63 (0.55, 0.71)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.61 (0.53, 0.69)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.87 (0.82, 0.93)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.80)</t>
+          <t>0.68 (0.60, 0.76)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1871,22 +1871,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.96)</t>
+          <t>0.92 (0.88, 0.97)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.70 (0.62, 0.78)</t>
+          <t>0.66 (0.59, 0.74)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.95 (0.92, 0.99)</t>
+          <t>0.95 (0.91, 0.98)</t>
         </is>
       </c>
     </row>
@@ -1954,22 +1954,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.68 (0.60, 0.76)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95 (0.91, 0.99)</t>
+          <t>0.88 (0.83, 0.93)</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1981,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.17 (0.11, 0.23)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.00 (0.00, 0.00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.00 (1.00, 1.00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.00 (0.00, 0.00)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.63 (0.55, 0.71)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.61 (0.53, 0.69)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -2013,27 +2013,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.83 (0.77, 0.90)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.84 (0.78, 0.90)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77 (0.70, 0.84)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.69 (0.61, 0.77)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0.90 (0.85, 0.95)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.79 (0.73, 0.86)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.73 (0.66, 0.81)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.95 (0.91, 0.98)</t>
         </is>
       </c>
     </row>
@@ -2045,27 +2045,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.96)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.72 (0.65, 0.80)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.68 (0.60, 0.76)</t>
+          <t>0.76 (0.69, 0.83)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.95 (0.91, 0.99)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
     </row>
@@ -2133,22 +2133,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.95)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.65 (0.57, 0.73)</t>
+          <t>0.70 (0.62, 0.78)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.93 (0.88, 0.97)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
     </row>
@@ -2160,27 +2160,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.79 (0.72, 0.86)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.60 (0.52, 0.68)</t>
+          <t>0.72 (0.65, 0.79)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.93 (0.89, 0.97)</t>
+          <t>0.87 (0.82, 0.93)</t>
         </is>
       </c>
     </row>
@@ -2192,17 +2192,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.79 (0.72, 0.85)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.93 (0.89, 0.97)</t>
+          <t>0.88 (0.83, 0.93)</t>
         </is>
       </c>
     </row>
@@ -2224,27 +2224,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.74 (0.66, 0.81)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.76)</t>
+          <t>0.75 (0.67, 0.82)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.94 (0.90, 0.98)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
     </row>
@@ -2307,27 +2307,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.85)</t>
+          <t>0.69 (0.61, 0.77)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.66 (0.58, 0.74)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.96)</t>
+          <t>0.94 (0.90, 0.98)</t>
         </is>
       </c>
     </row>
@@ -2339,27 +2339,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.61 (0.53, 0.69)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.60 (0.52, 0.68)</t>
+          <t>0.59 (0.51, 0.67)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.93 (0.89, 0.97)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
     </row>
@@ -2371,22 +2371,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.89 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80 (0.74, 0.87)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.75 (0.67, 0.82)</t>
+          <t>0.70 (0.62, 0.78)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2408,22 +2408,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.90 (0.85, 0.95)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.74 (0.66, 0.81)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.76)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.94 (0.90, 0.98)</t>
+          <t>0.93 (0.88, 0.97)</t>
         </is>
       </c>
     </row>
@@ -2486,27 +2486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.85)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.65 (0.57, 0.73)</t>
+          <t>0.60 (0.52, 0.68)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.91)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
     </row>
@@ -2518,27 +2518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.54 (0.46, 0.62)</t>
+          <t>0.73 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49 (0.40, 0.57)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.51 (0.43, 0.60)</t>
+          <t>0.64 (0.56, 0.71)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
     </row>
@@ -2555,22 +2555,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.68 (0.60, 0.75)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.84)</t>
+          <t>0.73 (0.66, 0.80)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.72)</t>
+          <t>0.63 (0.55, 0.71)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.82)</t>
+          <t>0.73 (0.66, 0.80)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.77)</t>
+          <t>0.71 (0.63, 0.78)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2665,27 +2665,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.96)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.74 (0.66, 0.81)</t>
+          <t>0.69 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95 (0.91, 0.99)</t>
+          <t>0.94 (0.89, 0.98)</t>
         </is>
       </c>
     </row>
@@ -2697,27 +2697,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.66 (0.58, 0.74)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.77)</t>
+          <t>0.83 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.71)</t>
+          <t>0.59 (0.50, 0.67)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.91 (0.87, 0.96)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
     </row>
@@ -2729,27 +2729,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.73 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
     </row>
@@ -2766,22 +2766,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.88 (0.83, 0.93)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.78 (0.71, 0.85)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.74 (0.67, 0.82)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.92 (0.88, 0.97)</t>
+          <t>0.94 (0.90, 0.98)</t>
         </is>
       </c>
     </row>
@@ -2844,27 +2844,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.73 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.72 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.76)</t>
+          <t>0.65 (0.57, 0.72)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.93)</t>
+          <t>0.86 (0.80, 0.91)</t>
         </is>
       </c>
     </row>
@@ -2876,27 +2876,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.54 (0.46, 0.62)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.69 (0.61, 0.77)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.41 (0.33, 0.49)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
     </row>
@@ -2908,27 +2908,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.75 (0.67, 0.82)</t>
+          <t>0.74 (0.67, 0.81)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.67 (0.60, 0.75)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.92)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.73 (0.66, 0.80)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.83 (0.77, 0.90)</t>
         </is>
       </c>
     </row>
@@ -2940,27 +2940,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.69 (0.62, 0.77)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.87 (0.82, 0.93)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.80 (0.73, 0.86)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.83 (0.77, 0.89)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
     </row>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.62 (0.54, 0.70)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.90 (0.86, 0.95)</t>
         </is>
       </c>
     </row>
@@ -3055,27 +3055,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.65 (0.58, 0.73)</t>
+          <t>0.72 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.61 (0.53, 0.69)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.85 (0.79, 0.91)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.57 (0.49, 0.65)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.80 (0.74, 0.87)</t>
+          <t>0.80 (0.73, 0.86)</t>
         </is>
       </c>
     </row>
@@ -3092,22 +3092,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.67 (0.60, 0.75)</t>
+          <t>0.73 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.74 (0.67, 0.81)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.82 (0.76, 0.88)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3119,27 +3119,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.63 (0.55, 0.71)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.88 (0.82, 0.93)</t>
         </is>
       </c>
     </row>
@@ -3207,17 +3207,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.81 (0.75, 0.88)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 (0.67, 0.81)</t>
+          <t>0.69 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3234,27 +3234,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.65 (0.57, 0.73)</t>
+          <t>0.74 (0.67, 0.82)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.79 (0.72, 0.86)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.68 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.57 (0.49, 0.65)</t>
+          <t>0.62 (0.54, 0.70)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.80 (0.74, 0.87)</t>
+          <t>0.87 (0.81, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3266,27 +3266,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.73 (0.66, 0.80)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.78 (0.72, 0.85)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.68 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.94)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
     </row>
@@ -3298,27 +3298,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.78 (0.71, 0.84)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.71 (0.63, 0.78)</t>
+          <t>0.75 (0.68, 0.82)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.79 (0.73, 0.86)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.70 (0.62, 0.78)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.92)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3381,27 +3381,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.86)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.76 (0.69, 0.83)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.76)</t>
+          <t>0.72 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.93)</t>
+          <t>0.86 (0.80, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3413,27 +3413,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.76 (0.68, 0.83)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.77 (0.70, 0.84)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.74 (0.67, 0.81)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.71 (0.64, 0.79)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.66 (0.58, 0.74)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.57 (0.49, 0.65)</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.80 (0.74, 0.87)</t>
+          <t>0.86 (0.81, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3445,27 +3445,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.85)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.73 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.67 (0.59, 0.75)</t>
+          <t>0.66 (0.59, 0.74)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.88 (0.83, 0.93)</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.79 (0.72, 0.86)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3487,17 +3487,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.89 (0.83, 0.94)</t>
+          <t>0.90 (0.85, 0.95)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.81 (0.75, 0.88)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
     </row>
@@ -3560,27 +3560,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.83 (0.76, 0.89)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.78 (0.72, 0.85)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.69 (0.61, 0.77)</t>
+          <t>0.68 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.94)</t>
+          <t>0.86 (0.80, 0.91)</t>
         </is>
       </c>
     </row>
@@ -3592,27 +3592,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.72)</t>
+          <t>0.81 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.61 (0.53, 0.69)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.67 (0.59, 0.75)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.92 (0.87, 0.96)</t>
         </is>
       </c>
     </row>
@@ -3624,27 +3624,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.82 (0.76, 0.89)</t>
+          <t>0.81 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.79 (0.72, 0.85)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.79 (0.73, 0.86)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.72 (0.64, 0.79)</t>
+          <t>0.71 (0.63, 0.78)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.93)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.92)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.78 (0.71, 0.84)</t>
+          <t>0.74 (0.66, 0.81)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.82 (0.76, 0.89)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.75 (0.68, 0.82)</t>
+          <t>0.79 (0.72, 0.85)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.76 (0.69, 0.83)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.80)</t>
+          <t>0.69 (0.61, 0.76)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85 (0.79, 0.91)</t>
+          <t>0.86 (0.81, 0.92)</t>
         </is>
       </c>
     </row>
@@ -3771,27 +3771,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.72)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.61 (0.53, 0.69)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.73 (0.65, 0.80)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
     </row>
@@ -3803,27 +3803,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.81 (0.75, 0.88)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.83 (0.77, 0.89)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.74 (0.67, 0.81)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.68 (0.60, 0.75)</t>
+          <t>0.66 (0.58, 0.73)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.88 (0.83, 0.93)</t>
+          <t>0.89 (0.83, 0.94)</t>
         </is>
       </c>
     </row>
@@ -3835,27 +3835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.81 (0.74, 0.87)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.71 (0.64, 0.79)</t>
+          <t>0.70 (0.62, 0.77)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.92)</t>
+          <t>0.88 (0.82, 0.93)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76 (0.69, 0.83)</t>
+          <t>0.78 (0.72, 0.85)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84 (0.78, 0.90)</t>
+          <t>0.84 (0.77, 0.90)</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.80 (0.74, 0.87)</t>
+          <t>0.78 (0.71, 0.85)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.84 (0.78, 0.90)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.72)</t>
+          <t>0.66 (0.59, 0.74)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.64 (0.56, 0.72)</t>
+          <t>0.80 (0.73, 0.87)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.61 (0.53, 0.69)</t>
+          <t>0.87 (0.81, 0.92)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.71 (0.64, 0.79)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.63 (0.55, 0.71)</t>
+          <t>0.65 (0.57, 0.73)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.91 (0.86, 0.95)</t>
         </is>
       </c>
     </row>
@@ -3982,27 +3982,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.82 (0.76, 0.88)</t>
+          <t>0.82 (0.75, 0.88)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.86 (0.80, 0.92)</t>
+          <t>0.83 (0.76, 0.89)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72 (0.65, 0.80)</t>
+          <t>0.77 (0.70, 0.84)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.66 (0.58, 0.74)</t>
+          <t>0.69 (0.61, 0.77)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.91 (0.86, 0.96)</t>
+          <t>0.89 (0.84, 0.94)</t>
         </is>
       </c>
     </row>
@@ -4014,27 +4014,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.82 (0.76, 0.88)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.77 (0.70, 0.84)</t>
+          <t>0.79 (0.72, 0.86)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.82 (0.75, 0.88)</t>
+          <t>0.80 (0.74, 0.87)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.73 (0.66, 0.81)</t>
+          <t>0.74 (0.67, 0.81)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.87 (0.81, 0.92)</t>
+          <t>0.88 (0.83, 0.94)</t>
         </is>
       </c>
     </row>
